--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-224949.7147478304</v>
+        <v>-226837.2962642329</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>658555.0622673108</v>
+        <v>197886.5192420441</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>83.06748266394166</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>136.0764651776644</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>33.42595480754875</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>11.00429467105812</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>167.9390269621172</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>254.1196019398061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>237.1978555715008</v>
       </c>
       <c r="X7" t="n">
-        <v>78.0850632036653</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93.31152892751582</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>114.362457348217</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>49.75696784121546</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>29.47502458765863</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896905</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986309</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>45.72775489805821</v>
       </c>
       <c r="G13" t="n">
-        <v>70.14968808829651</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>7.069968162443843</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>100.6429089205991</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>62.84942852843579</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>42.62821633732042</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>20.58581884348041</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>106.4165381846895</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>207.6951870029946</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>36.31437750815294</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>195.8155841663234</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>42.95895086650764</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965504</v>
+        <v>93.41221638965514</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801186</v>
+        <v>91.23070601801196</v>
       </c>
       <c r="F31" t="n">
-        <v>56.66053438010356</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897881</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571469</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752355</v>
+        <v>54.76109577523559</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298319</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.03409577002</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,13 +3326,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692846</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1322.340737411353</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C2" t="n">
-        <v>1322.340737411353</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D2" t="n">
-        <v>1322.340737411353</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>936.5524848131085</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
         <v>799.1015098861748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.806495672433</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X2" t="n">
-        <v>1322.340737411353</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y2" t="n">
-        <v>1322.340737411353</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,10 +4419,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>87.70657253506016</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>717.0135350437492</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>245.45494510253</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.835263233623</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1581.974595209434</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X5" t="n">
-        <v>1581.974595209434</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="Y5" t="n">
-        <v>1191.835263233623</v>
+        <v>1546.007598651101</v>
       </c>
     </row>
     <row r="6">
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>340.388532134052</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4762,13 +4762,13 @@
         <v>579.9823256406185</v>
       </c>
       <c r="W7" t="n">
-        <v>290.5651556036578</v>
+        <v>340.388532134052</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>340.388532134052</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>340.388532134052</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>1133.624152959603</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990284</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>1520.223993023725</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.317548404538</v>
+        <v>1520.223993023725</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>104.2025452963397</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>104.2025452963397</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>104.2025452963397</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>104.2025452963397</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>104.2025452963397</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>698.3562320976883</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>698.3562320976883</v>
+        <v>513.8405610245967</v>
       </c>
       <c r="T10" t="n">
-        <v>698.3562320976883</v>
+        <v>513.8405610245967</v>
       </c>
       <c r="U10" t="n">
-        <v>698.3562320976883</v>
+        <v>513.8405610245967</v>
       </c>
       <c r="V10" t="n">
-        <v>443.6717438918015</v>
+        <v>513.8405610245967</v>
       </c>
       <c r="W10" t="n">
-        <v>443.6717438918015</v>
+        <v>513.8405610245967</v>
       </c>
       <c r="X10" t="n">
-        <v>443.6717438918015</v>
+        <v>285.8510101265794</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>285.8510101265794</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,16 +5024,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,10 +5042,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515098</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>781.9683334201525</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.288466700114</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.809122337732</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O12" t="n">
-        <v>2103.272883640391</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>337.0115451844518</v>
+        <v>462.4595652127116</v>
       </c>
       <c r="C13" t="n">
-        <v>168.075362256545</v>
+        <v>293.5233822848016</v>
       </c>
       <c r="D13" t="n">
-        <v>168.075362256545</v>
+        <v>143.4067428724659</v>
       </c>
       <c r="E13" t="n">
-        <v>168.075362256545</v>
+        <v>143.4067428724659</v>
       </c>
       <c r="F13" t="n">
-        <v>168.075362256545</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W13" t="n">
-        <v>785.7936752259993</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X13" t="n">
-        <v>557.804124327982</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="Y13" t="n">
-        <v>337.0115451844518</v>
+        <v>644.1080300429513</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,28 +5267,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823795</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>877.4353633695368</v>
+        <v>647.9474523327484</v>
       </c>
       <c r="M15" t="n">
-        <v>1645.803509761998</v>
+        <v>1416.31559872521</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.976841616256</v>
+        <v>1760.836254362828</v>
       </c>
       <c r="O15" t="n">
-        <v>2536.440602918915</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>399.1615145228558</v>
+        <v>517.9294177607296</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>348.9932348328227</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>198.876595420487</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>198.876595420487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>198.876595420487</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>909.3712637033466</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W16" t="n">
-        <v>619.9540936663859</v>
+        <v>920.3704617344995</v>
       </c>
       <c r="X16" t="n">
-        <v>619.9540936663859</v>
+        <v>920.3704617344995</v>
       </c>
       <c r="Y16" t="n">
-        <v>399.1615145228558</v>
+        <v>699.5778825909694</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5598,22 +5598,22 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M18" t="n">
-        <v>1122.004430061687</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N18" t="n">
-        <v>1451.86705772572</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O18" t="n">
-        <v>2121.330819028379</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>328.8766843813094</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>328.8766843813094</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>328.8766843813094</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>328.8766843813094</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471188</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5704,19 +5704,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609661</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550792</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>731.3177283550792</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>731.3177283550792</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.5251492115491</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,34 +5735,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5835,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171745</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M21" t="n">
-        <v>1479.482307609636</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.893885873787</v>
+        <v>1440.068999358714</v>
       </c>
       <c r="O21" t="n">
-        <v>2418.551024593929</v>
+        <v>2109.532760661374</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.3056288361464</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1478.122514150346</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1254.337098939852</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909234</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="V22" t="n">
-        <v>909.3712637033467</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W22" t="n">
-        <v>619.9540936663861</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X22" t="n">
-        <v>619.9540936663861</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y22" t="n">
-        <v>619.9540936663861</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5981,22 +5981,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L24" t="n">
-        <v>711.1141612171745</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M24" t="n">
-        <v>1479.482307609636</v>
+        <v>1095.548343721096</v>
       </c>
       <c r="N24" t="n">
-        <v>1824.002963247254</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>503.0396462065431</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>503.0396462065431</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>503.0396462065431</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>355.12655262415</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>355.12655262415</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>754.3426236399425</v>
       </c>
       <c r="V25" t="n">
-        <v>1020.446367141521</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="W25" t="n">
-        <v>731.0291971045605</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X25" t="n">
-        <v>503.0396462065431</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>503.0396462065431</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,10 +6224,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>205.9281322449862</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047984</v>
+        <v>205.9281322449862</v>
       </c>
       <c r="L27" t="n">
-        <v>1079.287811648746</v>
+        <v>435.8912381133354</v>
       </c>
       <c r="M27" t="n">
-        <v>1847.655958041207</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N27" t="n">
-        <v>2192.176613678825</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O27" t="n">
-        <v>2440.930027762787</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1301.12275119798</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1077.337335987485</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>788.2086972010436</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V28" t="n">
-        <v>533.5242089951568</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="W28" t="n">
-        <v>244.1070389581961</v>
+        <v>354.6908600059908</v>
       </c>
       <c r="X28" t="n">
-        <v>244.1070389581961</v>
+        <v>354.6908600059908</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581961</v>
+        <v>133.8982808624606</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6440,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6476,16 +6476,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>241.9819002600964</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>855.878970016985</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M30" t="n">
-        <v>1624.247116409446</v>
+        <v>1330.779020085623</v>
       </c>
       <c r="N30" t="n">
-        <v>1954.109744073479</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6576,7 +6576,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163813</v>
+        <v>439.5324299542204</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698454</v>
+        <v>396.1395502910814</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388807</v>
+        <v>301.7837761601165</v>
       </c>
       <c r="E31" t="n">
-        <v>304.8808237378586</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="F31" t="n">
-        <v>247.647960727653</v>
+        <v>209.6315478590944</v>
       </c>
       <c r="G31" t="n">
-        <v>247.647960727653</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933507</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662002</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737486</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818964</v>
+        <v>902.6804289818948</v>
       </c>
       <c r="X31" t="n">
-        <v>730.45174336525</v>
+        <v>730.4517433652484</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.45174336525</v>
+        <v>565.4200295030892</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,40 +6689,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>130.8521933257228</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>279.9218775277826</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>509.8849833961317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M33" t="n">
-        <v>1278.253129788593</v>
+        <v>744.368461879264</v>
       </c>
       <c r="N33" t="n">
-        <v>2082.664708052744</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136706</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6950,31 +6950,31 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,22 +7011,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028583</v>
+        <v>385.3661712812278</v>
       </c>
       <c r="L36" t="n">
-        <v>711.1141612171745</v>
+        <v>999.2632410381165</v>
       </c>
       <c r="M36" t="n">
-        <v>1479.482307609636</v>
+        <v>1767.631387430578</v>
       </c>
       <c r="N36" t="n">
-        <v>1691.441695849499</v>
+        <v>2112.152043068196</v>
       </c>
       <c r="O36" t="n">
         <v>2360.905457152158</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254955</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7163,7 @@
         <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7172,28 +7172,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L39" t="n">
-        <v>904.39166832551</v>
+        <v>688.9285765597828</v>
       </c>
       <c r="M39" t="n">
-        <v>1224.726987855212</v>
+        <v>1009.263896089485</v>
       </c>
       <c r="N39" t="n">
-        <v>2029.138566119362</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7333,49 +7333,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649684</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860495</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045199</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
@@ -7397,7 +7397,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7409,22 +7409,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.325632214049</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>970.0833206816487</v>
       </c>
       <c r="N42" t="n">
-        <v>2554.178946862809</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O42" t="n">
-        <v>2554.178946862809</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103132</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7597,22 +7597,22 @@
         <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010323</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,7 +7637,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7646,10 +7646,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7664,13 +7664,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126482</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L45" t="n">
-        <v>493.5013994809973</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M45" t="n">
-        <v>493.5013994809973</v>
+        <v>990.9427979105847</v>
       </c>
       <c r="N45" t="n">
-        <v>1297.912977745148</v>
+        <v>1335.463453548203</v>
       </c>
       <c r="O45" t="n">
-        <v>1967.376739047807</v>
+        <v>2004.927214850862</v>
       </c>
       <c r="P45" t="n">
-        <v>2487.677360783555</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,16 +9015,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>354.7491179967246</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,13 +9246,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9492,13 +9492,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>278.6135562829717</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9735,10 +9735,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,16 +10200,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>212.7803969746478</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10674,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>345.4421042448107</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298389</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928343</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11145,22 +11145,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>376.4904526174739</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>99.69329312487304</v>
       </c>
       <c r="G13" t="n">
-        <v>96.34388037508107</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037947</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>160.176852936184</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>65.85065954277844</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>82.57161949449545</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>124.6186047613074</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>177.3349911401228</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>60.07703027868807</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>78.54216539558277</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>143.5176026737844</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>2.105225817279763</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>69.08461360356299</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>33.55725701427037</v>
+        <v>90.21779139437403</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897891</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571478</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246312.5309592848</v>
+        <v>246312.5309592849</v>
       </c>
       <c r="C2" t="n">
         <v>246312.5309592849</v>
@@ -26320,25 +26320,25 @@
         <v>246312.5309592849</v>
       </c>
       <c r="E2" t="n">
-        <v>234617.4358426253</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="F2" t="n">
-        <v>234617.4358426253</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="G2" t="n">
         <v>234617.4358426252</v>
       </c>
       <c r="H2" t="n">
+        <v>234617.4358426252</v>
+      </c>
+      <c r="I2" t="n">
         <v>234617.4358426251</v>
-      </c>
-      <c r="I2" t="n">
-        <v>234617.4358426252</v>
       </c>
       <c r="J2" t="n">
         <v>234617.4358426252</v>
       </c>
       <c r="K2" t="n">
-        <v>244093.282407162</v>
+        <v>244093.2824071618</v>
       </c>
       <c r="L2" t="n">
         <v>246312.5309592851</v>
@@ -26347,10 +26347,10 @@
         <v>246312.5309592852</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.5309592854</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="O2" t="n">
-        <v>246312.5309592853</v>
+        <v>246312.5309592851</v>
       </c>
       <c r="P2" t="n">
         <v>246312.5309592852</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284594</v>
+        <v>44162.60530284577</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086657</v>
+        <v>10342.90680086675</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284586</v>
+        <v>44162.60530284578</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.79369057589</v>
+        <v>787.7936905758679</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758629</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758694</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758822</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758901</v>
+        <v>787.7936905759314</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905759314</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477248</v>
+        <v>18952.41620477247</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189642</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189641</v>
+        <v>23206.58093189632</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
+        <v>23206.58093189632</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189637</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26488,19 +26488,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-565573.5654992881</v>
+        <v>-565573.565499288</v>
       </c>
       <c r="C6" t="n">
         <v>24394.31371525637</v>
       </c>
       <c r="D6" t="n">
-        <v>24394.31371525642</v>
+        <v>24394.31371525659</v>
       </c>
       <c r="E6" t="n">
-        <v>-383317.7202735631</v>
+        <v>-383415.1793995358</v>
       </c>
       <c r="F6" t="n">
-        <v>141842.3162033328</v>
+        <v>141744.8570773605</v>
       </c>
       <c r="G6" t="n">
-        <v>141842.3162033327</v>
+        <v>141744.8570773605</v>
       </c>
       <c r="H6" t="n">
-        <v>141842.3162033326</v>
+        <v>141744.8570773606</v>
       </c>
       <c r="I6" t="n">
-        <v>141842.3162033327</v>
+        <v>141744.8570773604</v>
       </c>
       <c r="J6" t="n">
-        <v>-34580.90298926019</v>
+        <v>-34678.36211523249</v>
       </c>
       <c r="K6" t="n">
-        <v>84350.05236932071</v>
+        <v>84331.5586313864</v>
       </c>
       <c r="L6" t="n">
-        <v>115047.9374064968</v>
+        <v>115047.9374064966</v>
       </c>
       <c r="M6" t="n">
-        <v>-9410.171026473748</v>
+        <v>-9410.171026473778</v>
       </c>
       <c r="N6" t="n">
-        <v>125390.8442073635</v>
+        <v>125390.8442073634</v>
       </c>
       <c r="O6" t="n">
-        <v>125390.8442073635</v>
+        <v>125390.8442073633</v>
       </c>
       <c r="P6" t="n">
-        <v>81228.23890451752</v>
+        <v>81228.23890451764</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964069</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108336</v>
+        <v>12.92863350108344</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855732</v>
+        <v>55.20325662855723</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855728</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>299.6663589995389</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>270.799580564047</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>101.5396669847895</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>135.6608973090997</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>214.7948147013634</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>95.12136677760691</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>49.32514276509019</v>
       </c>
       <c r="X7" t="n">
-        <v>147.6245921853719</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>289.4223127359647</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>250.9104344227905</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>117.5528344178354</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
-        <v>117.1901673924992</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.041087216435699e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-7.032208304403596e-13</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.946887095982675e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31139,13 +31139,13 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31364,7 +31364,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,10 +31382,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034983</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653279</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993531</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>247.1804110556234</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>448.9930752257593</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961213</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,19 +32069,19 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>324.0073282869832</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,22 +32090,22 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32318,25 +32318,25 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>256.1443698658182</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>24.73716304918608</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677464</v>
@@ -32555,25 +32555,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>25.91700776606024</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32780,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -32792,19 +32792,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>337.8039389768535</v>
       </c>
       <c r="O24" t="n">
-        <v>30.82475384765172</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32880,7 +32880,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,10 +32892,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -32944,40 +32944,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,19 +33017,19 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>110.5557234320158</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>344.6639853288872</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33041,19 +33041,19 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33117,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33129,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540898</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,43 +33254,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>19.6032815575486</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>175.7292720009181</v>
       </c>
       <c r="N30" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33354,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33366,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33418,40 +33418,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33491,13 +33491,13 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>34.72144169538608</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,7 +33506,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813461</v>
@@ -33515,19 +33515,19 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33591,7 +33591,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33603,10 +33603,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33655,40 +33655,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,19 +33728,19 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>164.4358785485904</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33749,7 +33749,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33764,7 +33764,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33828,7 +33828,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33840,10 +33840,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,31 +33965,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>238.778605225566</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>349.1732577503168</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -34001,7 +34001,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34065,7 +34065,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34077,10 +34077,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34202,31 +34202,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>154.5096087057374</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34238,7 +34238,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34302,7 +34302,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34314,10 +34314,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34366,40 +34366,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,13 +34439,13 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -34454,19 +34454,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>131.5791752514255</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.43593331510502</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34539,7 +34539,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,10 +34551,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279169</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>108.6260312757492</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>796.9937374859795</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415088</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>556.2932938105682</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>223.4074059133913</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>579.7153996937998</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>209.225524274793</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>136.0173118385273</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>210.4053689916672</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>685.8046012370737</v>
       </c>
       <c r="O24" t="n">
-        <v>282.0908286799368</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36522,7 +36522,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>109.809132105758</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>576.9499508524722</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
         <v>348.0006622602202</v>
@@ -36689,13 +36689,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36759,7 +36759,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36768,10 +36768,10 @@
         <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>146.2270795957682</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.129440800466</v>
+        <v>499.3003018288996</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941228</v>
+        <v>67.71102679412273</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043203</v>
+        <v>94.42895660043196</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>33.97485036912822</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>776.129440800466</v>
+        <v>70.64636305262947</v>
       </c>
       <c r="N33" t="n">
         <v>812.5369477415663</v>
@@ -37163,13 +37163,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>291.05967658681</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>214.1003921614774</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37406,7 +37406,7 @@
         <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>471.064570749151</v>
       </c>
       <c r="M39" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>600.4393325826019</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,16 +37707,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221134</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>776.129440800466</v>
+        <v>234.3564186954556</v>
       </c>
       <c r="N42" t="n">
-        <v>502.5102709659576</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>316.0675364770324</v>
       </c>
       <c r="Q45" t="n">
-        <v>126.5314469649326</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
